--- a/data/trans_orig/Q23_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q23_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07CA08BF-A969-4785-843D-E79A33329926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{42431F0D-1F5E-4BCE-BDB7-359AD3D7D0F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0BA6139F-3DD2-49A6-AF20-07ACDC9963E7}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C5B66D43-314E-4C8F-B5EE-7D7967D31CAD}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="501">
   <si>
     <t>Población según edad a la que empezó a fumar tabaco en cuartiles en 2007 (Tasa respuesta: 42,33%)</t>
   </si>
@@ -75,28 +75,28 @@
     <t>5,51%</t>
   </si>
   <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
   </si>
   <si>
     <t>7,1%</t>
   </si>
   <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
   </si>
   <si>
     <t>6,26%</t>
   </si>
   <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
   </si>
   <si>
     <t>Tercer Cuartil</t>
@@ -105,1423 +105,1441 @@
     <t>25,03%</t>
   </si>
   <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
   </si>
   <si>
     <t>22,89%</t>
   </si>
   <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
   </si>
   <si>
     <t>24,02%</t>
   </si>
   <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>Segundo Cuartil</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>Primer Cuartil</t>
+  </si>
+  <si>
+    <t>44,25%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>51,28%</t>
+  </si>
+  <si>
+    <t>43,82%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>48,79%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>44,27%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>69,2%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>49,66%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>52,94%</t>
+  </si>
+  <si>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>47,64%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>45,4%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>51,35%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>47,84%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
     <t>19,75%</t>
   </si>
   <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>Segundo Cuartil</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>Primer Cuartil</t>
-  </si>
-  <si>
-    <t>44,25%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>51,65%</t>
-  </si>
-  <si>
-    <t>43,82%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>51,99%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>49,05%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>44,03%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según edad a la que empezó a fumar tabaco en cuartiles en 2012 (Tasa respuesta: 49,24%)</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>52,35%</t>
+  </si>
+  <si>
+    <t>55,39%</t>
+  </si>
+  <si>
+    <t>47,74%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>49,97%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
   </si>
   <si>
     <t>25,6%</t>
   </si>
   <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>41,72%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>41,21%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
   </si>
   <si>
     <t>26,22%</t>
   </si>
   <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>56,4%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
   </si>
   <si>
     <t>28,59%</t>
   </si>
   <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>44,96%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
   </si>
   <si>
     <t>39,82%</t>
   </si>
   <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>40,44%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>56,45%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>68,98%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>49,92%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>41,93%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>52,94%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>71,94%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>50,45%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
   </si>
   <si>
     <t>30,91%</t>
   </si>
   <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
   </si>
   <si>
     <t>30,92%</t>
   </si>
   <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según edad a la que empezó a fumar tabaco en cuartiles en 2012 (Tasa respuesta: 49,24%)</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>52,8%</t>
-  </si>
-  <si>
-    <t>55,39%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>63,02%</t>
-  </si>
-  <si>
-    <t>49,97%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>55,78%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>45,27%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>56,67%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
     <t>33,31%</t>
   </si>
   <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
   </si>
 </sst>
 </file>
@@ -1933,7 +1951,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB84BE5E-1FCC-4753-A202-0AF740B0071F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A5A51F4-E5D0-4791-A031-A8B9F5D817E5}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2162,10 +2180,10 @@
         <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>46</v>
@@ -2174,13 +2192,13 @@
         <v>45179</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>95</v>
@@ -2189,19 +2207,19 @@
         <v>94221</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>85</v>
@@ -2210,28 +2228,28 @@
         <v>86067</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>80</v>
       </c>
       <c r="I7" s="7">
-        <v>75609</v>
+        <v>75610</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>165</v>
@@ -2240,13 +2258,13 @@
         <v>161677</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2261,28 +2279,28 @@
         <v>194515</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>180</v>
       </c>
       <c r="I8" s="7">
-        <v>172545</v>
+        <v>172546</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M8" s="7">
         <v>375</v>
@@ -2291,18 +2309,18 @@
         <v>367060</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -2314,13 +2332,13 @@
         <v>40434</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>40</v>
@@ -2329,13 +2347,13 @@
         <v>43342</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>78</v>
@@ -2344,13 +2362,13 @@
         <v>83776</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2365,13 +2383,13 @@
         <v>138019</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>99</v>
@@ -2380,13 +2398,13 @@
         <v>104383</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>231</v>
@@ -2395,13 +2413,13 @@
         <v>242402</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2416,13 +2434,13 @@
         <v>100705</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>49</v>
@@ -2431,13 +2449,13 @@
         <v>49895</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>147</v>
@@ -2446,19 +2464,19 @@
         <v>150600</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="7">
         <v>118</v>
@@ -2467,13 +2485,13 @@
         <v>118270</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>74</v>
@@ -2482,13 +2500,13 @@
         <v>76792</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>192</v>
@@ -2497,13 +2515,13 @@
         <v>195062</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2518,13 +2536,13 @@
         <v>397429</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H13" s="7">
         <v>262</v>
@@ -2533,13 +2551,13 @@
         <v>274411</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M13" s="7">
         <v>648</v>
@@ -2548,18 +2566,18 @@
         <v>671840</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2571,13 +2589,13 @@
         <v>34988</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>48</v>
@@ -2586,13 +2604,13 @@
         <v>51032</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>80</v>
@@ -2601,10 +2619,10 @@
         <v>86020</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>96</v>
@@ -2715,7 +2733,7 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="7">
         <v>104</v>
@@ -2742,10 +2760,10 @@
         <v>118</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>179</v>
@@ -2754,13 +2772,13 @@
         <v>184678</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2775,13 +2793,13 @@
         <v>380001</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H18" s="7">
         <v>287</v>
@@ -2790,13 +2808,13 @@
         <v>298475</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M18" s="7">
         <v>655</v>
@@ -2805,18 +2823,18 @@
         <v>678476</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2828,13 +2846,13 @@
         <v>32377</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>58</v>
@@ -2843,13 +2861,13 @@
         <v>61471</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>86</v>
@@ -2858,13 +2876,13 @@
         <v>93848</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2879,13 +2897,13 @@
         <v>110867</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>70</v>
@@ -2894,13 +2912,13 @@
         <v>72705</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>173</v>
@@ -2909,13 +2927,13 @@
         <v>183572</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2930,7 +2948,7 @@
         <v>70032</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>142</v>
+        <v>37</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>143</v>
@@ -2972,7 +2990,7 @@
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" s="7">
         <v>104</v>
@@ -3032,13 +3050,13 @@
         <v>325237</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H23" s="7">
         <v>186</v>
@@ -3047,13 +3065,13 @@
         <v>192907</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M23" s="7">
         <v>487</v>
@@ -3062,13 +3080,13 @@
         <v>518145</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3118,10 +3136,10 @@
         <v>167</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>25</v>
+        <v>168</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3136,13 +3154,13 @@
         <v>70614</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H25" s="7">
         <v>12</v>
@@ -3151,13 +3169,13 @@
         <v>12502</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>174</v>
+        <v>104</v>
       </c>
       <c r="M25" s="7">
         <v>83</v>
@@ -3229,7 +3247,7 @@
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" s="7">
         <v>97</v>
@@ -3289,13 +3307,13 @@
         <v>228053</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H28" s="7">
         <v>57</v>
@@ -3304,13 +3322,13 @@
         <v>59019</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M28" s="7">
         <v>287</v>
@@ -3319,13 +3337,13 @@
         <v>287073</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3360,10 +3378,10 @@
         <v>200</v>
       </c>
       <c r="K29" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M29" s="7">
         <v>64</v>
@@ -3372,13 +3390,13 @@
         <v>63777</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3393,13 +3411,13 @@
         <v>63707</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H30" s="7">
         <v>8</v>
@@ -3408,13 +3426,13 @@
         <v>8975</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="M30" s="7">
         <v>74</v>
@@ -3423,13 +3441,13 @@
         <v>72683</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3444,13 +3462,13 @@
         <v>33800</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -3459,13 +3477,13 @@
         <v>1125</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M31" s="7">
         <v>38</v>
@@ -3474,19 +3492,19 @@
         <v>34925</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C32" s="7">
         <v>124</v>
@@ -3495,13 +3513,13 @@
         <v>120052</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="H32" s="7">
         <v>4</v>
@@ -3510,13 +3528,13 @@
         <v>4941</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M32" s="7">
         <v>128</v>
@@ -3525,13 +3543,13 @@
         <v>124994</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3546,13 +3564,13 @@
         <v>264417</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H33" s="7">
         <v>30</v>
@@ -3561,13 +3579,13 @@
         <v>31961</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M33" s="7">
         <v>304</v>
@@ -3576,13 +3594,13 @@
         <v>296378</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3599,13 +3617,13 @@
         <v>192997</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="H34" s="7">
         <v>208</v>
@@ -3614,13 +3632,13 @@
         <v>218333</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="M34" s="7">
         <v>392</v>
@@ -3629,13 +3647,13 @@
         <v>411330</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3650,13 +3668,13 @@
         <v>569454</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="H35" s="7">
         <v>342</v>
@@ -3665,28 +3683,28 @@
         <v>352318</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="M35" s="7">
         <v>896</v>
       </c>
       <c r="N35" s="7">
-        <v>921772</v>
+        <v>921771</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3701,13 +3719,13 @@
         <v>385522</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="H36" s="7">
         <v>176</v>
@@ -3716,13 +3734,13 @@
         <v>180432</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>255</v>
+        <v>211</v>
       </c>
       <c r="M36" s="7">
         <v>560</v>
@@ -3731,19 +3749,19 @@
         <v>565954</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37" s="7">
         <v>632</v>
@@ -3752,13 +3770,13 @@
         <v>641679</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>260</v>
+        <v>83</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>64</v>
+        <v>257</v>
       </c>
       <c r="H37" s="7">
         <v>276</v>
@@ -3767,13 +3785,13 @@
         <v>278236</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="M37" s="7">
         <v>908</v>
@@ -3782,13 +3800,13 @@
         <v>919915</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3803,13 +3821,13 @@
         <v>1789652</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H38" s="7">
         <v>1002</v>
@@ -3818,33 +3836,33 @@
         <v>1029319</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M38" s="7">
         <v>2756</v>
       </c>
       <c r="N38" s="7">
-        <v>2818971</v>
+        <v>2818970</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -3866,7 +3884,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD215D2C-F0E5-457A-9657-FDA029037C78}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30440DE8-4477-4CB8-ADC1-93EDB04C033D}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3883,7 +3901,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3990,13 +4008,13 @@
         <v>9564</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -4005,13 +4023,13 @@
         <v>7148</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="M4" s="7">
         <v>16</v>
@@ -4020,13 +4038,13 @@
         <v>16712</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4041,13 +4059,13 @@
         <v>50808</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>132</v>
+        <v>276</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H5" s="7">
         <v>33</v>
@@ -4056,13 +4074,13 @@
         <v>32758</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M5" s="7">
         <v>84</v>
@@ -4071,10 +4089,10 @@
         <v>83566</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>283</v>
@@ -4134,7 +4152,7 @@
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>80</v>
@@ -4194,13 +4212,13 @@
         <v>180983</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>156</v>
@@ -4209,13 +4227,13 @@
         <v>160988</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M8" s="7">
         <v>336</v>
@@ -4224,18 +4242,18 @@
         <v>341970</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -4247,13 +4265,13 @@
         <v>63397</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="H9" s="7">
         <v>65</v>
@@ -4262,13 +4280,13 @@
         <v>69924</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="M9" s="7">
         <v>124</v>
@@ -4277,13 +4295,13 @@
         <v>133321</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>308</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4298,13 +4316,13 @@
         <v>138172</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="H10" s="7">
         <v>95</v>
@@ -4313,13 +4331,13 @@
         <v>102093</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="M10" s="7">
         <v>231</v>
@@ -4328,13 +4346,13 @@
         <v>240265</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4349,13 +4367,13 @@
         <v>82234</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="H11" s="7">
         <v>69</v>
@@ -4364,13 +4382,13 @@
         <v>71350</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>150</v>
+        <v>320</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>321</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>205</v>
+        <v>322</v>
       </c>
       <c r="M11" s="7">
         <v>149</v>
@@ -4379,19 +4397,19 @@
         <v>153584</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="7">
         <v>118</v>
@@ -4400,13 +4418,13 @@
         <v>125173</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H12" s="7">
         <v>79</v>
@@ -4415,13 +4433,13 @@
         <v>83748</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>78</v>
+        <v>329</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="M12" s="7">
         <v>197</v>
@@ -4430,13 +4448,13 @@
         <v>208920</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4451,13 +4469,13 @@
         <v>408976</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H13" s="7">
         <v>308</v>
@@ -4466,13 +4484,13 @@
         <v>327114</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M13" s="7">
         <v>701</v>
@@ -4481,18 +4499,18 @@
         <v>736090</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -4504,13 +4522,13 @@
         <v>76702</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="H14" s="7">
         <v>68</v>
@@ -4519,13 +4537,13 @@
         <v>72700</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="M14" s="7">
         <v>137</v>
@@ -4534,13 +4552,13 @@
         <v>149402</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4555,13 +4573,13 @@
         <v>135021</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H15" s="7">
         <v>125</v>
@@ -4570,13 +4588,13 @@
         <v>129672</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="M15" s="7">
         <v>254</v>
@@ -4585,13 +4603,13 @@
         <v>264694</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4606,13 +4624,13 @@
         <v>81190</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>352</v>
+        <v>96</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H16" s="7">
         <v>56</v>
@@ -4621,13 +4639,13 @@
         <v>62564</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M16" s="7">
         <v>136</v>
@@ -4636,19 +4654,19 @@
         <v>143754</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="7">
         <v>130</v>
@@ -4657,13 +4675,13 @@
         <v>133910</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>106</v>
+        <v>361</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="H17" s="7">
         <v>93</v>
@@ -4672,13 +4690,13 @@
         <v>99151</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="M17" s="7">
         <v>223</v>
@@ -4687,13 +4705,13 @@
         <v>233061</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>168</v>
+        <v>367</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>117</v>
+        <v>368</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4708,13 +4726,13 @@
         <v>426823</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H18" s="7">
         <v>342</v>
@@ -4723,13 +4741,13 @@
         <v>364088</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M18" s="7">
         <v>750</v>
@@ -4738,18 +4756,18 @@
         <v>790911</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4761,13 +4779,13 @@
         <v>66767</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="H19" s="7">
         <v>71</v>
@@ -4776,13 +4794,13 @@
         <v>80842</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>255</v>
+        <v>373</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>39</v>
+        <v>374</v>
       </c>
       <c r="M19" s="7">
         <v>126</v>
@@ -4791,13 +4809,13 @@
         <v>147609</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4812,13 +4830,13 @@
         <v>118300</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>199</v>
+        <v>379</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>169</v>
+        <v>380</v>
       </c>
       <c r="H20" s="7">
         <v>96</v>
@@ -4827,13 +4845,13 @@
         <v>107135</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="M20" s="7">
         <v>204</v>
@@ -4842,13 +4860,13 @@
         <v>225435</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4863,13 +4881,13 @@
         <v>98952</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="H21" s="7">
         <v>44</v>
@@ -4878,13 +4896,13 @@
         <v>51318</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="M21" s="7">
         <v>129</v>
@@ -4893,19 +4911,19 @@
         <v>150270</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" s="7">
         <v>146</v>
@@ -4914,13 +4932,13 @@
         <v>160570</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="H22" s="7">
         <v>69</v>
@@ -4929,13 +4947,13 @@
         <v>85057</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>114</v>
+        <v>399</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="M22" s="7">
         <v>215</v>
@@ -4944,13 +4962,13 @@
         <v>245627</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4965,13 +4983,13 @@
         <v>444588</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H23" s="7">
         <v>280</v>
@@ -4980,13 +4998,13 @@
         <v>324353</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M23" s="7">
         <v>674</v>
@@ -4995,13 +5013,13 @@
         <v>768941</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5018,13 +5036,13 @@
         <v>55170</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="H24" s="7">
         <v>40</v>
@@ -5033,13 +5051,13 @@
         <v>45269</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="M24" s="7">
         <v>88</v>
@@ -5048,13 +5066,13 @@
         <v>100438</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>376</v>
+        <v>413</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5069,13 +5087,13 @@
         <v>81333</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>75</v>
+        <v>415</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="H25" s="7">
         <v>36</v>
@@ -5084,13 +5102,13 @@
         <v>41928</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="M25" s="7">
         <v>109</v>
@@ -5099,13 +5117,13 @@
         <v>123260</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5120,13 +5138,13 @@
         <v>39695</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>413</v>
+        <v>58</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="H26" s="7">
         <v>14</v>
@@ -5135,13 +5153,13 @@
         <v>15494</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="M26" s="7">
         <v>52</v>
@@ -5150,19 +5168,19 @@
         <v>55189</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>420</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" s="7">
         <v>106</v>
@@ -5171,13 +5189,13 @@
         <v>114536</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="H27" s="7">
         <v>14</v>
@@ -5186,13 +5204,13 @@
         <v>14676</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="M27" s="7">
         <v>120</v>
@@ -5201,13 +5219,13 @@
         <v>129212</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5222,13 +5240,13 @@
         <v>290734</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H28" s="7">
         <v>104</v>
@@ -5237,13 +5255,13 @@
         <v>117366</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M28" s="7">
         <v>369</v>
@@ -5252,13 +5270,13 @@
         <v>408099</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5275,13 +5293,13 @@
         <v>71404</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>431</v>
+        <v>279</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="H29" s="7">
         <v>25</v>
@@ -5290,13 +5308,13 @@
         <v>28514</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="M29" s="7">
         <v>84</v>
@@ -5305,13 +5323,13 @@
         <v>99919</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>436</v>
+        <v>407</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5326,13 +5344,13 @@
         <v>88555</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>439</v>
+        <v>122</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="H30" s="7">
         <v>4</v>
@@ -5341,13 +5359,13 @@
         <v>4166</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="M30" s="7">
         <v>86</v>
@@ -5356,13 +5374,13 @@
         <v>92722</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5377,13 +5395,13 @@
         <v>53656</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>257</v>
+        <v>109</v>
       </c>
       <c r="H31" s="7">
         <v>2</v>
@@ -5392,13 +5410,13 @@
         <v>1869</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="M31" s="7">
         <v>51</v>
@@ -5407,19 +5425,19 @@
         <v>55525</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>454</v>
+        <v>321</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C32" s="7">
         <v>149</v>
@@ -5428,13 +5446,13 @@
         <v>159592</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="H32" s="7">
         <v>4</v>
@@ -5443,13 +5461,13 @@
         <v>4619</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="M32" s="7">
         <v>153</v>
@@ -5458,13 +5476,13 @@
         <v>164211</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>141</v>
+        <v>466</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5479,13 +5497,13 @@
         <v>373208</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H33" s="7">
         <v>35</v>
@@ -5494,13 +5512,13 @@
         <v>39168</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M33" s="7">
         <v>374</v>
@@ -5509,13 +5527,13 @@
         <v>412377</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5532,13 +5550,13 @@
         <v>343004</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>337</v>
+        <v>469</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="H34" s="7">
         <v>276</v>
@@ -5547,13 +5565,13 @@
         <v>304397</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>466</v>
+        <v>56</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>86</v>
+        <v>473</v>
       </c>
       <c r="M34" s="7">
         <v>575</v>
@@ -5562,13 +5580,13 @@
         <v>647402</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5583,13 +5601,13 @@
         <v>612189</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>470</v>
+        <v>445</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="H35" s="7">
         <v>389</v>
@@ -5598,13 +5616,13 @@
         <v>417752</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="M35" s="7">
         <v>968</v>
@@ -5613,13 +5631,13 @@
         <v>1029941</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>473</v>
+        <v>484</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5634,13 +5652,13 @@
         <v>394628</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="H36" s="7">
         <v>216</v>
@@ -5649,13 +5667,13 @@
         <v>234503</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>213</v>
+        <v>113</v>
       </c>
       <c r="M36" s="7">
         <v>588</v>
@@ -5664,19 +5682,19 @@
         <v>629130</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>484</v>
+        <v>215</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37" s="7">
         <v>729</v>
@@ -5685,13 +5703,13 @@
         <v>775491</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="H37" s="7">
         <v>344</v>
@@ -5700,13 +5718,13 @@
         <v>376424</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="M37" s="7">
         <v>1073</v>
@@ -5715,13 +5733,13 @@
         <v>1151915</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5736,13 +5754,13 @@
         <v>2125312</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H38" s="7">
         <v>1225</v>
@@ -5751,13 +5769,13 @@
         <v>1333076</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M38" s="7">
         <v>3204</v>
@@ -5766,18 +5784,18 @@
         <v>3458388</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q23_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q23_R-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42431F0D-1F5E-4BCE-BDB7-359AD3D7D0F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{257F93D9-3AF9-4DDA-80C1-8A7D1CAF6861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C5B66D43-314E-4C8F-B5EE-7D7967D31CAD}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{99B64B8A-99F4-4CBB-803B-BEB44BC32657}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="498">
   <si>
     <t>Población según edad a la que empezó a fumar tabaco en cuartiles en 2007 (Tasa respuesta: 42,33%)</t>
   </si>
@@ -75,28 +75,28 @@
     <t>5,51%</t>
   </si>
   <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
   </si>
   <si>
     <t>7,1%</t>
   </si>
   <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
   </si>
   <si>
     <t>6,26%</t>
   </si>
   <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
   </si>
   <si>
     <t>Tercer Cuartil</t>
@@ -105,28 +105,28 @@
     <t>25,03%</t>
   </si>
   <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
   </si>
   <si>
     <t>22,89%</t>
   </si>
   <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
   </si>
   <si>
     <t>24,02%</t>
   </si>
   <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
   </si>
   <si>
     <t>Segundo Cuartil</t>
@@ -135,1411 +135,1402 @@
     <t>25,21%</t>
   </si>
   <si>
-    <t>31,95%</t>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
   </si>
   <si>
     <t>26,18%</t>
   </si>
   <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
   </si>
   <si>
     <t>25,67%</t>
   </si>
   <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>Primer Cuartil</t>
+  </si>
+  <si>
+    <t>44,25%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>51,49%</t>
+  </si>
+  <si>
+    <t>43,82%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>51,89%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>44,69%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>44,1%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>45,35%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
     <t>21,53%</t>
   </si>
   <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>Primer Cuartil</t>
-  </si>
-  <si>
-    <t>44,25%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>51,28%</t>
-  </si>
-  <si>
-    <t>43,82%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>48,79%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
+  </si>
+  <si>
+    <t>68,85%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>52,94%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>71,16%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>45,4%</t>
   </si>
   <si>
     <t>39,51%</t>
   </si>
   <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>48,29%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según edad a la que empezó a fumar tabaco en cuartiles en 2012 (Tasa respuesta: 49,24%)</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>53,11%</t>
+  </si>
+  <si>
+    <t>55,39%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>63,22%</t>
+  </si>
+  <si>
+    <t>49,97%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
   </si>
   <si>
     <t>12,87%</t>
   </si>
   <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>56,45%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>69,2%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>49,66%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>52,94%</t>
-  </si>
-  <si>
-    <t>69,5%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>46,6%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>45,32%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>55,88%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>45,39%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
   </si>
   <si>
     <t>19,56%</t>
   </si>
   <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>51,35%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>47,84%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según edad a la que empezó a fumar tabaco en cuartiles en 2012 (Tasa respuesta: 49,24%)</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>52,35%</t>
-  </si>
-  <si>
-    <t>55,39%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>49,97%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>55,28%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>41,21%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>56,4%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
     <t>18,19%</t>
   </si>
   <si>
-    <t>19,59%</t>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
   </si>
   <si>
     <t>36,49%</t>
   </si>
   <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
   </si>
   <si>
     <t>28,24%</t>
   </si>
   <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
   </si>
   <si>
     <t>33,31%</t>
   </si>
   <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
   </si>
 </sst>
 </file>
@@ -1951,7 +1942,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A5A51F4-E5D0-4791-A031-A8B9F5D817E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A9D3A5F-C71A-430B-8F0D-5ABBEEDAF0A3}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2180,10 +2171,10 @@
         <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>46</v>
@@ -2192,13 +2183,13 @@
         <v>45179</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>95</v>
@@ -2207,19 +2198,19 @@
         <v>94221</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>85</v>
@@ -2228,28 +2219,28 @@
         <v>86067</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>80</v>
       </c>
       <c r="I7" s="7">
-        <v>75610</v>
+        <v>75609</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>165</v>
@@ -2258,13 +2249,13 @@
         <v>161677</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2279,28 +2270,28 @@
         <v>194515</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H8" s="7">
         <v>180</v>
       </c>
       <c r="I8" s="7">
-        <v>172546</v>
+        <v>172545</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M8" s="7">
         <v>375</v>
@@ -2309,18 +2300,18 @@
         <v>367060</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -2332,13 +2323,13 @@
         <v>40434</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>40</v>
@@ -2347,13 +2338,13 @@
         <v>43342</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>78</v>
@@ -2362,13 +2353,13 @@
         <v>83776</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2383,13 +2374,13 @@
         <v>138019</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>99</v>
@@ -2398,13 +2389,13 @@
         <v>104383</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>231</v>
@@ -2413,13 +2404,13 @@
         <v>242402</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2434,13 +2425,13 @@
         <v>100705</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>49</v>
@@ -2449,13 +2440,13 @@
         <v>49895</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>147</v>
@@ -2464,19 +2455,19 @@
         <v>150600</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7">
         <v>118</v>
@@ -2485,13 +2476,13 @@
         <v>118270</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>74</v>
@@ -2500,13 +2491,13 @@
         <v>76792</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>192</v>
@@ -2515,13 +2506,13 @@
         <v>195062</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2536,13 +2527,13 @@
         <v>397429</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H13" s="7">
         <v>262</v>
@@ -2551,13 +2542,13 @@
         <v>274411</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M13" s="7">
         <v>648</v>
@@ -2566,18 +2557,18 @@
         <v>671840</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2589,13 +2580,13 @@
         <v>34988</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>48</v>
@@ -2604,13 +2595,13 @@
         <v>51032</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>80</v>
@@ -2619,10 +2610,10 @@
         <v>86020</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>96</v>
@@ -2733,7 +2724,7 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7">
         <v>104</v>
@@ -2754,7 +2745,7 @@
         <v>75</v>
       </c>
       <c r="I17" s="7">
-        <v>77286</v>
+        <v>77287</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>118</v>
@@ -2793,28 +2784,28 @@
         <v>380001</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H18" s="7">
         <v>287</v>
       </c>
       <c r="I18" s="7">
-        <v>298475</v>
+        <v>298476</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M18" s="7">
         <v>655</v>
@@ -2823,13 +2814,13 @@
         <v>678476</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2948,13 +2939,13 @@
         <v>70032</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>37</v>
+        <v>143</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H21" s="7">
         <v>22</v>
@@ -2963,13 +2954,13 @@
         <v>22522</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M21" s="7">
         <v>88</v>
@@ -2978,19 +2969,19 @@
         <v>92554</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7">
         <v>104</v>
@@ -2999,13 +2990,13 @@
         <v>111961</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>36</v>
@@ -3014,10 +3005,10 @@
         <v>36210</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>155</v>
+        <v>74</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>156</v>
@@ -3050,13 +3041,13 @@
         <v>325237</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H23" s="7">
         <v>186</v>
@@ -3065,13 +3056,13 @@
         <v>192907</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M23" s="7">
         <v>487</v>
@@ -3080,13 +3071,13 @@
         <v>518145</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3175,7 +3166,7 @@
         <v>174</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>104</v>
+        <v>175</v>
       </c>
       <c r="M25" s="7">
         <v>83</v>
@@ -3184,13 +3175,13 @@
         <v>83116</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3247,7 +3238,7 @@
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C27" s="7">
         <v>97</v>
@@ -3289,10 +3280,10 @@
         <v>193</v>
       </c>
       <c r="P27" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3307,13 +3298,13 @@
         <v>228053</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H28" s="7">
         <v>57</v>
@@ -3322,13 +3313,13 @@
         <v>59019</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M28" s="7">
         <v>287</v>
@@ -3337,18 +3328,18 @@
         <v>287073</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -3360,13 +3351,13 @@
         <v>46858</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H29" s="7">
         <v>17</v>
@@ -3375,10 +3366,10 @@
         <v>16920</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>201</v>
@@ -3393,10 +3384,10 @@
         <v>202</v>
       </c>
       <c r="P29" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3411,13 +3402,13 @@
         <v>63707</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H30" s="7">
         <v>8</v>
@@ -3426,10 +3417,10 @@
         <v>8975</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>209</v>
@@ -3504,7 +3495,7 @@
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C32" s="7">
         <v>124</v>
@@ -3564,13 +3555,13 @@
         <v>264417</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H33" s="7">
         <v>30</v>
@@ -3579,13 +3570,13 @@
         <v>31961</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M33" s="7">
         <v>304</v>
@@ -3594,13 +3585,13 @@
         <v>296378</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3632,13 +3623,13 @@
         <v>218333</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="M34" s="7">
         <v>392</v>
@@ -3647,13 +3638,13 @@
         <v>411330</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3668,13 +3659,13 @@
         <v>569454</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="H35" s="7">
         <v>342</v>
@@ -3683,28 +3674,28 @@
         <v>352318</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="M35" s="7">
         <v>896</v>
       </c>
       <c r="N35" s="7">
-        <v>921771</v>
+        <v>921772</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3719,7 +3710,7 @@
         <v>385522</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>150</v>
+        <v>248</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>249</v>
@@ -3740,7 +3731,7 @@
         <v>252</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="M36" s="7">
         <v>560</v>
@@ -3749,19 +3740,19 @@
         <v>565954</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C37" s="7">
         <v>632</v>
@@ -3770,13 +3761,13 @@
         <v>641679</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>83</v>
+        <v>258</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H37" s="7">
         <v>276</v>
@@ -3785,13 +3776,13 @@
         <v>278236</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="M37" s="7">
         <v>908</v>
@@ -3800,13 +3791,13 @@
         <v>919915</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3821,13 +3812,13 @@
         <v>1789652</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H38" s="7">
         <v>1002</v>
@@ -3836,33 +3827,33 @@
         <v>1029319</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M38" s="7">
         <v>2756</v>
       </c>
       <c r="N38" s="7">
-        <v>2818970</v>
+        <v>2818971</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -3884,7 +3875,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30440DE8-4477-4CB8-ADC1-93EDB04C033D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0600A68B-B13E-436E-96AD-913B091F7D68}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3901,7 +3892,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4008,13 +3999,13 @@
         <v>9564</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -4023,13 +4014,13 @@
         <v>7148</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M4" s="7">
         <v>16</v>
@@ -4038,13 +4029,13 @@
         <v>16712</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4059,13 +4050,13 @@
         <v>50808</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="H5" s="7">
         <v>33</v>
@@ -4074,13 +4065,13 @@
         <v>32758</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="M5" s="7">
         <v>84</v>
@@ -4089,13 +4080,13 @@
         <v>83566</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>283</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4110,13 +4101,13 @@
         <v>38901</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H6" s="7">
         <v>31</v>
@@ -4125,13 +4116,13 @@
         <v>31908</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M6" s="7">
         <v>71</v>
@@ -4140,19 +4131,19 @@
         <v>70809</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>80</v>
@@ -4161,13 +4152,13 @@
         <v>81710</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H7" s="7">
         <v>85</v>
@@ -4176,13 +4167,13 @@
         <v>89173</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M7" s="7">
         <v>165</v>
@@ -4191,13 +4182,13 @@
         <v>170883</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4212,13 +4203,13 @@
         <v>180983</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H8" s="7">
         <v>156</v>
@@ -4227,13 +4218,13 @@
         <v>160988</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M8" s="7">
         <v>336</v>
@@ -4242,18 +4233,18 @@
         <v>341970</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -4265,13 +4256,13 @@
         <v>63397</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>96</v>
+        <v>303</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H9" s="7">
         <v>65</v>
@@ -4280,13 +4271,13 @@
         <v>69924</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>306</v>
+        <v>169</v>
       </c>
       <c r="M9" s="7">
         <v>124</v>
@@ -4298,10 +4289,10 @@
         <v>131</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>308</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4316,13 +4307,13 @@
         <v>138172</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="H10" s="7">
         <v>95</v>
@@ -4331,13 +4322,13 @@
         <v>102093</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>312</v>
+        <v>80</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M10" s="7">
         <v>231</v>
@@ -4346,10 +4337,10 @@
         <v>240265</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>315</v>
+        <v>85</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>316</v>
@@ -4409,7 +4400,7 @@
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7">
         <v>118</v>
@@ -4436,10 +4427,10 @@
         <v>329</v>
       </c>
       <c r="K12" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>331</v>
       </c>
       <c r="M12" s="7">
         <v>197</v>
@@ -4448,13 +4439,13 @@
         <v>208920</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4469,13 +4460,13 @@
         <v>408976</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H13" s="7">
         <v>308</v>
@@ -4484,13 +4475,13 @@
         <v>327114</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M13" s="7">
         <v>701</v>
@@ -4499,18 +4490,18 @@
         <v>736090</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -4522,13 +4513,13 @@
         <v>76702</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="H14" s="7">
         <v>68</v>
@@ -4537,13 +4528,13 @@
         <v>72700</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="M14" s="7">
         <v>137</v>
@@ -4552,13 +4543,13 @@
         <v>149402</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>343</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4573,13 +4564,13 @@
         <v>135021</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>344</v>
+        <v>33</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="H15" s="7">
         <v>125</v>
@@ -4588,13 +4579,13 @@
         <v>129672</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="M15" s="7">
         <v>254</v>
@@ -4603,13 +4594,13 @@
         <v>264694</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4624,13 +4615,13 @@
         <v>81190</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>96</v>
+        <v>349</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="H16" s="7">
         <v>56</v>
@@ -4639,13 +4630,13 @@
         <v>62564</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="M16" s="7">
         <v>136</v>
@@ -4654,19 +4645,19 @@
         <v>143754</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7">
         <v>130</v>
@@ -4675,13 +4666,13 @@
         <v>133910</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>361</v>
+        <v>203</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="H17" s="7">
         <v>93</v>
@@ -4690,13 +4681,13 @@
         <v>99151</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="M17" s="7">
         <v>223</v>
@@ -4705,13 +4696,13 @@
         <v>233061</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4726,13 +4717,13 @@
         <v>426823</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H18" s="7">
         <v>342</v>
@@ -4741,13 +4732,13 @@
         <v>364088</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M18" s="7">
         <v>750</v>
@@ -4756,13 +4747,13 @@
         <v>790911</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4779,13 +4770,13 @@
         <v>66767</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="H19" s="7">
         <v>71</v>
@@ -4794,13 +4785,13 @@
         <v>80842</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="M19" s="7">
         <v>126</v>
@@ -4809,13 +4800,13 @@
         <v>147609</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4830,13 +4821,13 @@
         <v>118300</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="H20" s="7">
         <v>96</v>
@@ -4845,13 +4836,13 @@
         <v>107135</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="M20" s="7">
         <v>204</v>
@@ -4860,13 +4851,13 @@
         <v>225435</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4881,13 +4872,13 @@
         <v>98952</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="H21" s="7">
         <v>44</v>
@@ -4896,13 +4887,13 @@
         <v>51318</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>391</v>
+        <v>219</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="M21" s="7">
         <v>129</v>
@@ -4911,19 +4902,19 @@
         <v>150270</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7">
         <v>146</v>
@@ -4932,13 +4923,13 @@
         <v>160570</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="H22" s="7">
         <v>69</v>
@@ -4947,13 +4938,13 @@
         <v>85057</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="M22" s="7">
         <v>215</v>
@@ -4962,13 +4953,13 @@
         <v>245627</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4983,13 +4974,13 @@
         <v>444588</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H23" s="7">
         <v>280</v>
@@ -4998,13 +4989,13 @@
         <v>324353</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M23" s="7">
         <v>674</v>
@@ -5013,13 +5004,13 @@
         <v>768941</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5036,13 +5027,13 @@
         <v>55170</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="H24" s="7">
         <v>40</v>
@@ -5051,13 +5042,13 @@
         <v>45269</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="M24" s="7">
         <v>88</v>
@@ -5066,13 +5057,13 @@
         <v>100438</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>411</v>
+        <v>158</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5087,13 +5078,13 @@
         <v>81333</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>416</v>
+        <v>310</v>
       </c>
       <c r="H25" s="7">
         <v>36</v>
@@ -5102,13 +5093,13 @@
         <v>41928</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="M25" s="7">
         <v>109</v>
@@ -5117,13 +5108,13 @@
         <v>123260</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>420</v>
+        <v>369</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>421</v>
+        <v>380</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5138,13 +5129,13 @@
         <v>39695</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>58</v>
+        <v>414</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="H26" s="7">
         <v>14</v>
@@ -5153,13 +5144,13 @@
         <v>15494</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="M26" s="7">
         <v>52</v>
@@ -5168,19 +5159,19 @@
         <v>55189</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>91</v>
+        <v>421</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C27" s="7">
         <v>106</v>
@@ -5189,13 +5180,13 @@
         <v>114536</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="H27" s="7">
         <v>14</v>
@@ -5204,13 +5195,13 @@
         <v>14676</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>433</v>
+        <v>91</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="M27" s="7">
         <v>120</v>
@@ -5219,13 +5210,13 @@
         <v>129212</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5240,13 +5231,13 @@
         <v>290734</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H28" s="7">
         <v>104</v>
@@ -5255,13 +5246,13 @@
         <v>117366</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M28" s="7">
         <v>369</v>
@@ -5270,18 +5261,18 @@
         <v>408099</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -5293,13 +5284,13 @@
         <v>71404</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>279</v>
+        <v>431</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="H29" s="7">
         <v>25</v>
@@ -5308,13 +5299,13 @@
         <v>28514</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="M29" s="7">
         <v>84</v>
@@ -5323,13 +5314,13 @@
         <v>99919</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>407</v>
+        <v>436</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5344,13 +5335,13 @@
         <v>88555</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="H30" s="7">
         <v>4</v>
@@ -5359,13 +5350,13 @@
         <v>4166</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="M30" s="7">
         <v>86</v>
@@ -5374,13 +5365,13 @@
         <v>92722</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>452</v>
+        <v>234</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5395,13 +5386,13 @@
         <v>53656</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>109</v>
+        <v>448</v>
       </c>
       <c r="H31" s="7">
         <v>2</v>
@@ -5410,13 +5401,13 @@
         <v>1869</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>217</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="M31" s="7">
         <v>51</v>
@@ -5425,19 +5416,19 @@
         <v>55525</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>321</v>
+        <v>453</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C32" s="7">
         <v>149</v>
@@ -5446,13 +5437,13 @@
         <v>159592</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="H32" s="7">
         <v>4</v>
@@ -5461,13 +5452,13 @@
         <v>4619</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="M32" s="7">
         <v>153</v>
@@ -5476,13 +5467,13 @@
         <v>164211</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5497,13 +5488,13 @@
         <v>373208</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H33" s="7">
         <v>35</v>
@@ -5512,13 +5503,13 @@
         <v>39168</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M33" s="7">
         <v>374</v>
@@ -5527,13 +5518,13 @@
         <v>412377</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5550,13 +5541,13 @@
         <v>343004</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H34" s="7">
         <v>276</v>
@@ -5565,13 +5556,13 @@
         <v>304397</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>56</v>
+        <v>467</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="M34" s="7">
         <v>575</v>
@@ -5580,13 +5571,13 @@
         <v>647402</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>475</v>
+        <v>421</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5601,13 +5592,13 @@
         <v>612189</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>445</v>
+        <v>471</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="H35" s="7">
         <v>389</v>
@@ -5616,13 +5607,13 @@
         <v>417752</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="M35" s="7">
         <v>968</v>
@@ -5631,13 +5622,13 @@
         <v>1029941</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5652,13 +5643,13 @@
         <v>394628</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="H36" s="7">
         <v>216</v>
@@ -5667,13 +5658,13 @@
         <v>234503</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>113</v>
+        <v>485</v>
       </c>
       <c r="M36" s="7">
         <v>588</v>
@@ -5682,19 +5673,19 @@
         <v>629130</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>215</v>
+        <v>487</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C37" s="7">
         <v>729</v>
@@ -5703,13 +5694,13 @@
         <v>775491</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="H37" s="7">
         <v>344</v>
@@ -5718,13 +5709,13 @@
         <v>376424</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="M37" s="7">
         <v>1073</v>
@@ -5733,13 +5724,13 @@
         <v>1151915</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5754,13 +5745,13 @@
         <v>2125312</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H38" s="7">
         <v>1225</v>
@@ -5769,13 +5760,13 @@
         <v>1333076</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M38" s="7">
         <v>3204</v>
@@ -5784,18 +5775,18 @@
         <v>3458388</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q23_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q23_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{257F93D9-3AF9-4DDA-80C1-8A7D1CAF6861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D351B0A2-2BD5-40B4-9312-B03AE9FB387B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{99B64B8A-99F4-4CBB-803B-BEB44BC32657}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4E8C9004-453B-4AF8-829C-5394E22659DB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="495">
   <si>
     <t>Población según edad a la que empezó a fumar tabaco en cuartiles en 2007 (Tasa respuesta: 42,33%)</t>
   </si>
@@ -75,28 +75,28 @@
     <t>5,51%</t>
   </si>
   <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
   </si>
   <si>
     <t>7,1%</t>
   </si>
   <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
   </si>
   <si>
     <t>6,26%</t>
   </si>
   <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
   </si>
   <si>
     <t>Tercer Cuartil</t>
@@ -105,28 +105,28 @@
     <t>25,03%</t>
   </si>
   <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
   </si>
   <si>
     <t>22,89%</t>
   </si>
   <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
   </si>
   <si>
     <t>24,02%</t>
   </si>
   <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
   </si>
   <si>
     <t>Segundo Cuartil</t>
@@ -135,1402 +135,1393 @@
     <t>25,21%</t>
   </si>
   <si>
-    <t>18,96%</t>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>Primer Cuartil</t>
+  </si>
+  <si>
+    <t>44,25%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
+  </si>
+  <si>
+    <t>43,82%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>51,99%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>49,05%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>44,03%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>41,72%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>68,98%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>49,92%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>52,94%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>71,94%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>45,4%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>50,45%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según edad a la que empezó a fumar tabaco en cuartiles en 2012 (Tasa respuesta: 49,24%)</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>52,8%</t>
+  </si>
+  <si>
+    <t>55,39%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>63,02%</t>
+  </si>
+  <si>
+    <t>49,97%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>55,78%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
   </si>
   <si>
     <t>31,63%</t>
   </si>
   <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>Primer Cuartil</t>
-  </si>
-  <si>
-    <t>44,25%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>43,82%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>51,89%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>48,61%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>40,04%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>45,27%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>56,67%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
   </si>
   <si>
     <t>25,69%</t>
   </si>
   <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>44,1%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>56,45%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>68,85%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>49,41%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>52,94%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>71,16%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>50,89%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>48,29%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según edad a la que empezó a fumar tabaco en cuartiles en 2012 (Tasa respuesta: 49,24%)</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>53,11%</t>
-  </si>
-  <si>
-    <t>55,39%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>63,22%</t>
-  </si>
-  <si>
-    <t>49,97%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>46,6%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>45,32%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>55,88%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>45,39%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
+    <t>30,82%</t>
   </si>
   <si>
     <t>33,31%</t>
   </si>
   <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
   </si>
 </sst>
 </file>
@@ -1942,7 +1933,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A9D3A5F-C71A-430B-8F0D-5ABBEEDAF0A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{822B0D5F-3E14-4B91-B659-64CDC1F80B66}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2613,7 +2604,7 @@
         <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>96</v>
@@ -2745,16 +2736,16 @@
         <v>75</v>
       </c>
       <c r="I17" s="7">
-        <v>77287</v>
+        <v>77286</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>118</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>179</v>
@@ -2763,13 +2754,13 @@
         <v>184678</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2796,7 +2787,7 @@
         <v>287</v>
       </c>
       <c r="I18" s="7">
-        <v>298476</v>
+        <v>298475</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
@@ -2825,7 +2816,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2837,13 +2828,13 @@
         <v>32377</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>58</v>
@@ -2852,13 +2843,13 @@
         <v>61471</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>86</v>
@@ -2867,13 +2858,13 @@
         <v>93848</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2888,13 +2879,13 @@
         <v>110867</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>70</v>
@@ -2903,13 +2894,13 @@
         <v>72705</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>173</v>
@@ -2918,13 +2909,13 @@
         <v>183572</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2939,13 +2930,13 @@
         <v>70032</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H21" s="7">
         <v>22</v>
@@ -2954,13 +2945,13 @@
         <v>22522</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M21" s="7">
         <v>88</v>
@@ -2969,13 +2960,13 @@
         <v>92554</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2990,13 +2981,13 @@
         <v>111961</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>36</v>
@@ -3005,10 +2996,10 @@
         <v>36210</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>156</v>
@@ -3127,10 +3118,10 @@
         <v>167</v>
       </c>
       <c r="P24" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3145,13 +3136,13 @@
         <v>70614</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H25" s="7">
         <v>12</v>
@@ -3160,13 +3151,13 @@
         <v>12502</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M25" s="7">
         <v>83</v>
@@ -3175,13 +3166,13 @@
         <v>83116</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3280,10 +3271,10 @@
         <v>193</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>108</v>
+        <v>194</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3339,7 +3330,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -3351,13 +3342,13 @@
         <v>46858</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H29" s="7">
         <v>17</v>
@@ -3366,13 +3357,13 @@
         <v>16920</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M29" s="7">
         <v>64</v>
@@ -3381,13 +3372,13 @@
         <v>63777</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3402,13 +3393,13 @@
         <v>63707</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H30" s="7">
         <v>8</v>
@@ -3417,13 +3408,13 @@
         <v>8975</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M30" s="7">
         <v>74</v>
@@ -3432,13 +3423,13 @@
         <v>72683</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3453,13 +3444,13 @@
         <v>33800</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>214</v>
+        <v>19</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -3468,13 +3459,13 @@
         <v>1125</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M31" s="7">
         <v>38</v>
@@ -3483,13 +3474,13 @@
         <v>34925</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3504,13 +3495,13 @@
         <v>120052</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H32" s="7">
         <v>4</v>
@@ -3519,13 +3510,13 @@
         <v>4941</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M32" s="7">
         <v>128</v>
@@ -3534,13 +3525,13 @@
         <v>124994</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3608,13 +3599,13 @@
         <v>192997</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H34" s="7">
         <v>208</v>
@@ -3623,13 +3614,13 @@
         <v>218333</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>151</v>
+        <v>235</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M34" s="7">
         <v>392</v>
@@ -3638,13 +3629,13 @@
         <v>411330</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3659,13 +3650,13 @@
         <v>569454</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H35" s="7">
         <v>342</v>
@@ -3674,13 +3665,13 @@
         <v>352318</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M35" s="7">
         <v>896</v>
@@ -3689,13 +3680,13 @@
         <v>921772</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3710,13 +3701,13 @@
         <v>385522</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H36" s="7">
         <v>176</v>
@@ -3725,13 +3716,13 @@
         <v>180432</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="M36" s="7">
         <v>560</v>
@@ -3740,13 +3731,13 @@
         <v>565954</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3761,13 +3752,13 @@
         <v>641679</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>259</v>
+        <v>64</v>
       </c>
       <c r="H37" s="7">
         <v>276</v>
@@ -3776,13 +3767,13 @@
         <v>278236</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M37" s="7">
         <v>908</v>
@@ -3791,13 +3782,13 @@
         <v>919915</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3853,7 +3844,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -3875,7 +3866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0600A68B-B13E-436E-96AD-913B091F7D68}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D6B738-B230-404D-AA91-C3F613A1C7AB}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3892,7 +3883,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3999,13 +3990,13 @@
         <v>9564</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -4014,13 +4005,13 @@
         <v>7148</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M4" s="7">
         <v>16</v>
@@ -4029,13 +4020,13 @@
         <v>16712</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4050,10 +4041,10 @@
         <v>50808</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>278</v>
+        <v>132</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>279</v>
@@ -4071,7 +4062,7 @@
         <v>281</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>282</v>
+        <v>120</v>
       </c>
       <c r="M5" s="7">
         <v>84</v>
@@ -4080,13 +4071,13 @@
         <v>83566</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4101,13 +4092,13 @@
         <v>38901</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="H6" s="7">
         <v>31</v>
@@ -4116,13 +4107,13 @@
         <v>31908</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="M6" s="7">
         <v>71</v>
@@ -4131,13 +4122,13 @@
         <v>70809</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4152,13 +4143,13 @@
         <v>81710</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="H7" s="7">
         <v>85</v>
@@ -4167,13 +4158,13 @@
         <v>89173</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="M7" s="7">
         <v>165</v>
@@ -4182,13 +4173,13 @@
         <v>170883</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4256,13 +4247,13 @@
         <v>63397</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="H9" s="7">
         <v>65</v>
@@ -4271,13 +4262,13 @@
         <v>69924</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M9" s="7">
         <v>124</v>
@@ -4286,7 +4277,7 @@
         <v>133321</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>308</v>
@@ -4325,10 +4316,10 @@
         <v>313</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>80</v>
+        <v>314</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M10" s="7">
         <v>231</v>
@@ -4337,13 +4328,13 @@
         <v>240265</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>85</v>
+        <v>317</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>316</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4358,13 +4349,13 @@
         <v>82234</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H11" s="7">
         <v>69</v>
@@ -4373,13 +4364,13 @@
         <v>71350</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>320</v>
+        <v>150</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>321</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>322</v>
+        <v>205</v>
       </c>
       <c r="M11" s="7">
         <v>149</v>
@@ -4388,13 +4379,13 @@
         <v>153584</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4409,13 +4400,13 @@
         <v>125173</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="H12" s="7">
         <v>79</v>
@@ -4424,13 +4415,13 @@
         <v>83748</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>330</v>
       </c>
       <c r="M12" s="7">
         <v>197</v>
@@ -4439,10 +4430,10 @@
         <v>208920</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>332</v>
@@ -4513,13 +4504,13 @@
         <v>76702</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H14" s="7">
         <v>68</v>
@@ -4528,13 +4519,13 @@
         <v>72700</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M14" s="7">
         <v>137</v>
@@ -4543,13 +4534,13 @@
         <v>149402</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>278</v>
+        <v>341</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4564,13 +4555,13 @@
         <v>135021</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>33</v>
+        <v>342</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="H15" s="7">
         <v>125</v>
@@ -4579,13 +4570,13 @@
         <v>129672</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="M15" s="7">
         <v>254</v>
@@ -4594,13 +4585,13 @@
         <v>264694</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4615,13 +4606,13 @@
         <v>81190</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="H16" s="7">
         <v>56</v>
@@ -4630,13 +4621,13 @@
         <v>62564</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="M16" s="7">
         <v>136</v>
@@ -4648,10 +4639,10 @@
         <v>73</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4666,13 +4657,13 @@
         <v>133910</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>203</v>
+        <v>106</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="H17" s="7">
         <v>93</v>
@@ -4681,13 +4672,13 @@
         <v>99151</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="M17" s="7">
         <v>223</v>
@@ -4696,13 +4687,13 @@
         <v>233061</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>362</v>
+        <v>168</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>363</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4758,7 +4749,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4770,13 +4761,13 @@
         <v>66767</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H19" s="7">
         <v>71</v>
@@ -4785,13 +4776,13 @@
         <v>80842</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>368</v>
+        <v>255</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>369</v>
+        <v>39</v>
       </c>
       <c r="M19" s="7">
         <v>126</v>
@@ -4800,13 +4791,13 @@
         <v>147609</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4821,13 +4812,13 @@
         <v>118300</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>374</v>
+        <v>199</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>375</v>
+        <v>169</v>
       </c>
       <c r="H20" s="7">
         <v>96</v>
@@ -4836,13 +4827,13 @@
         <v>107135</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="M20" s="7">
         <v>204</v>
@@ -4851,13 +4842,13 @@
         <v>225435</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4872,13 +4863,13 @@
         <v>98952</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="H21" s="7">
         <v>44</v>
@@ -4887,13 +4878,13 @@
         <v>51318</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>219</v>
+        <v>383</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="M21" s="7">
         <v>129</v>
@@ -4902,13 +4893,13 @@
         <v>150270</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4923,13 +4914,13 @@
         <v>160570</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>392</v>
       </c>
       <c r="H22" s="7">
         <v>69</v>
@@ -4938,13 +4929,13 @@
         <v>85057</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>393</v>
+        <v>114</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="M22" s="7">
         <v>215</v>
@@ -4953,13 +4944,13 @@
         <v>245627</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5027,13 +5018,13 @@
         <v>55170</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="H24" s="7">
         <v>40</v>
@@ -5042,13 +5033,13 @@
         <v>45269</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="M24" s="7">
         <v>88</v>
@@ -5057,13 +5048,13 @@
         <v>100438</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>158</v>
+        <v>402</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>406</v>
+        <v>376</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5078,13 +5069,13 @@
         <v>81333</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>408</v>
+        <v>75</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>310</v>
+        <v>405</v>
       </c>
       <c r="H25" s="7">
         <v>36</v>
@@ -5093,13 +5084,13 @@
         <v>41928</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="M25" s="7">
         <v>109</v>
@@ -5108,13 +5099,13 @@
         <v>123260</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>369</v>
+        <v>409</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>380</v>
+        <v>410</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5129,13 +5120,13 @@
         <v>39695</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>415</v>
       </c>
       <c r="H26" s="7">
         <v>14</v>
@@ -5144,13 +5135,13 @@
         <v>15494</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>418</v>
       </c>
       <c r="M26" s="7">
         <v>52</v>
@@ -5159,13 +5150,13 @@
         <v>55189</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5180,13 +5171,13 @@
         <v>114536</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>423</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>424</v>
       </c>
       <c r="H27" s="7">
         <v>14</v>
@@ -5195,7 +5186,7 @@
         <v>14676</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>91</v>
+        <v>424</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>425</v>
@@ -5272,7 +5263,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -5335,13 +5326,13 @@
         <v>88555</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>116</v>
+        <v>439</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H30" s="7">
         <v>4</v>
@@ -5350,13 +5341,13 @@
         <v>4166</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M30" s="7">
         <v>86</v>
@@ -5365,13 +5356,13 @@
         <v>92722</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>234</v>
+        <v>446</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5386,13 +5377,13 @@
         <v>53656</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>448</v>
+        <v>257</v>
       </c>
       <c r="H31" s="7">
         <v>2</v>
@@ -5401,13 +5392,13 @@
         <v>1869</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M31" s="7">
         <v>51</v>
@@ -5416,13 +5407,13 @@
         <v>55525</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5437,13 +5428,13 @@
         <v>159592</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H32" s="7">
         <v>4</v>
@@ -5452,13 +5443,13 @@
         <v>4619</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M32" s="7">
         <v>153</v>
@@ -5467,7 +5458,7 @@
         <v>164211</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>460</v>
+        <v>141</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>461</v>
@@ -5541,13 +5532,13 @@
         <v>343004</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>464</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>465</v>
       </c>
       <c r="H34" s="7">
         <v>276</v>
@@ -5556,13 +5547,13 @@
         <v>304397</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="K34" s="7" t="s">
-        <v>467</v>
-      </c>
       <c r="L34" s="7" t="s">
-        <v>468</v>
+        <v>86</v>
       </c>
       <c r="M34" s="7">
         <v>575</v>
@@ -5571,13 +5562,13 @@
         <v>647402</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>469</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5592,13 +5583,13 @@
         <v>612189</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>472</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>473</v>
       </c>
       <c r="H35" s="7">
         <v>389</v>
@@ -5607,13 +5598,13 @@
         <v>417752</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>474</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>475</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>476</v>
       </c>
       <c r="M35" s="7">
         <v>968</v>
@@ -5622,13 +5613,13 @@
         <v>1029941</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="P35" s="7" t="s">
-        <v>478</v>
-      </c>
       <c r="Q35" s="7" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5643,13 +5634,13 @@
         <v>394628</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>480</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>482</v>
       </c>
       <c r="H36" s="7">
         <v>216</v>
@@ -5658,13 +5649,13 @@
         <v>234503</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>485</v>
+        <v>213</v>
       </c>
       <c r="M36" s="7">
         <v>588</v>
@@ -5673,13 +5664,13 @@
         <v>629130</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5694,13 +5685,13 @@
         <v>775491</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="H37" s="7">
         <v>344</v>
@@ -5709,13 +5700,13 @@
         <v>376424</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="M37" s="7">
         <v>1073</v>
@@ -5724,13 +5715,13 @@
         <v>1151915</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5786,7 +5777,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
